--- a/实验结果.xlsx
+++ b/实验结果.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wuyuanfujie/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5F9675-A154-A943-BE8E-61FD97A7E978}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D376FC-28D8-6C46-B7DE-5AB298A452AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="600" windowWidth="24940" windowHeight="15000" xr2:uid="{047AF6EF-4B3C-6542-BE9D-A177F1E09917}"/>
+    <workbookView xWindow="660" yWindow="660" windowWidth="24940" windowHeight="15000" activeTab="1" xr2:uid="{047AF6EF-4B3C-6542-BE9D-A177F1E09917}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>N20small</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,6 +108,61 @@
   </si>
   <si>
     <t>N20short</t>
+  </si>
+  <si>
+    <t>Twitter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num of vocab not in word2vec: 0</t>
+  </si>
+  <si>
+    <t>799条非英文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余2773条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docnumber: 2773</t>
+  </si>
+  <si>
+    <t>max_len: 15</t>
+  </si>
+  <si>
+    <t>len_vocab: 2598</t>
+  </si>
+  <si>
+    <t>num of vocab in word2vec: 2598</t>
+  </si>
+  <si>
+    <t>(2599, 300)</t>
+  </si>
+  <si>
+    <t>glove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num of vocab in glove: 8157</t>
+  </si>
+  <si>
+    <t>num of vocab not in glove: 0</t>
+  </si>
+  <si>
+    <t>vocabulary length: 8158</t>
+  </si>
+  <si>
+    <t>(8158, 300)</t>
+  </si>
+  <si>
+    <t>num of vocab in glove: 6377</t>
+  </si>
+  <si>
+    <t>vocabulary length: 6378</t>
+  </si>
+  <si>
+    <t>(6378, 300)</t>
   </si>
 </sst>
 </file>
@@ -396,6 +452,72 @@
         <a:xfrm>
           <a:off x="8311537" y="5630746"/>
           <a:ext cx="5055534" cy="6798577"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>770726</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>37330</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="Pasted Graphic.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73A5E043-8439-A241-9554-E12D81AC9184}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7772400" y="0"/>
+          <a:ext cx="5380826" cy="2475730"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -716,8 +838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D76ADC55-F568-534A-92C0-6220F5ACFDB5}">
   <dimension ref="A1:U18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView zoomScale="99" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -989,4 +1111,133 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53B92011-27FD-AF40-98F3-F9BF85490E33}">
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1">
+        <v>3572</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9">
+        <v>2599</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/实验结果.xlsx
+++ b/实验结果.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wuyuanfujie/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wuyuanfujie/Code/PycharmCode/TWE-DMM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D376FC-28D8-6C46-B7DE-5AB298A452AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB4D906F-0E38-AA41-BCA5-86F896CF6C8D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="660" windowWidth="24940" windowHeight="15000" activeTab="1" xr2:uid="{047AF6EF-4B3C-6542-BE9D-A177F1E09917}"/>
+    <workbookView xWindow="4800" yWindow="2100" windowWidth="18420" windowHeight="12320" activeTab="2" xr2:uid="{047AF6EF-4B3C-6542-BE9D-A177F1E09917}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="LEAM-data" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="116">
   <si>
     <t>N20small</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,6 +164,242 @@
   </si>
   <si>
     <t>(6378, 300)</t>
+  </si>
+  <si>
+    <t>(0, 1) 127</t>
+  </si>
+  <si>
+    <t>(1, 2) 114</t>
+  </si>
+  <si>
+    <t>(0,) 442</t>
+  </si>
+  <si>
+    <t>(1, 3) 44</t>
+  </si>
+  <si>
+    <t>(1,) 347</t>
+  </si>
+  <si>
+    <t>(0, 2, 3) 77</t>
+  </si>
+  <si>
+    <t>(0, 1, 2) 196</t>
+  </si>
+  <si>
+    <t>(2,) 454</t>
+  </si>
+  <si>
+    <t>(3,) 218</t>
+  </si>
+  <si>
+    <t>(0, 1, 3) 65</t>
+  </si>
+  <si>
+    <t>(1, 2, 3) 33</t>
+  </si>
+  <si>
+    <t>(2, 3) 48</t>
+  </si>
+  <si>
+    <t>(0, 3) 78</t>
+  </si>
+  <si>
+    <t>(0, 2) 144</t>
+  </si>
+  <si>
+    <t>(0, 1, 2, 3) 211</t>
+  </si>
+  <si>
+    <t>mustset类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEAM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1580 126 88</t>
+  </si>
+  <si>
+    <t>18 1 1</t>
+  </si>
+  <si>
+    <t>36 2 2</t>
+  </si>
+  <si>
+    <t>54 3 3</t>
+  </si>
+  <si>
+    <t>72 4 4</t>
+  </si>
+  <si>
+    <t>90 5 5</t>
+  </si>
+  <si>
+    <t>108 6 6</t>
+  </si>
+  <si>
+    <t>126 7 7</t>
+  </si>
+  <si>
+    <t>144 8 8</t>
+  </si>
+  <si>
+    <t>162 9 9</t>
+  </si>
+  <si>
+    <t>180 10 10</t>
+  </si>
+  <si>
+    <t>198 11 11</t>
+  </si>
+  <si>
+    <t>216 12 12</t>
+  </si>
+  <si>
+    <t>234 13 13</t>
+  </si>
+  <si>
+    <t>252 14 14</t>
+  </si>
+  <si>
+    <t>270 15 15</t>
+  </si>
+  <si>
+    <t>288 16 16</t>
+  </si>
+  <si>
+    <t>306 17 17</t>
+  </si>
+  <si>
+    <t>324 18 18</t>
+  </si>
+  <si>
+    <t>342 19 19</t>
+  </si>
+  <si>
+    <t>360 20 20</t>
+  </si>
+  <si>
+    <t>len_vocab: 1351</t>
+  </si>
+  <si>
+    <t>docnumber: 1794</t>
+  </si>
+  <si>
+    <t>max_len: 20</t>
+  </si>
+  <si>
+    <t>len_vocab: 2203</t>
+  </si>
+  <si>
+    <t>['os', 'mideast', 'misc', 'soc', 'sport', 'autos', 'x', 'pc', 'crypt', 'ms-windows', 'politics', 'guns']</t>
+  </si>
+  <si>
+    <t>add class word into vocab, total number: 12</t>
+  </si>
+  <si>
+    <t>dict_keys(['talk.politics.misc', 'sci.med', 'talk.politics.mideast', 'rec.motorcycles', 'alt.atheism', 'sci.crypt', 'rec.sport.baseball', 'comp.windows.x', 'comp.graphics', 'comp.sys.ibm.pc.hardware', 'talk.religion.misc', 'comp.sys.mac.hardware', 'rec.sport.hockey', 'sci.space', 'comp.os.ms-windows.misc', 'talk.politics.guns', 'rec.autos', 'soc.religion.christian', 'sci.electronics', 'misc.forsale'])</t>
+  </si>
+  <si>
+    <t>26 2 1</t>
+  </si>
+  <si>
+    <t>109 9 5</t>
+  </si>
+  <si>
+    <t>149 12 8</t>
+  </si>
+  <si>
+    <t>202 16 11</t>
+  </si>
+  <si>
+    <t>228 18 13</t>
+  </si>
+  <si>
+    <t>258 20 15</t>
+  </si>
+  <si>
+    <t>360 28 21</t>
+  </si>
+  <si>
+    <t>481 38 28</t>
+  </si>
+  <si>
+    <t>644 51 37</t>
+  </si>
+  <si>
+    <t>747 59 43</t>
+  </si>
+  <si>
+    <t>777 61 45</t>
+  </si>
+  <si>
+    <t>897 71 51</t>
+  </si>
+  <si>
+    <t>959 76 55</t>
+  </si>
+  <si>
+    <t>1007 80 57</t>
+  </si>
+  <si>
+    <t>1127 90 63</t>
+  </si>
+  <si>
+    <t>1152 92 64</t>
+  </si>
+  <si>
+    <t>1247 100 69</t>
+  </si>
+  <si>
+    <t>1307 105 72</t>
+  </si>
+  <si>
+    <t>1401 112 78</t>
+  </si>
+  <si>
+    <t>docnumber: 400</t>
+  </si>
+  <si>
+    <t>max_len: 2119</t>
+  </si>
+  <si>
+    <t>len_vocab: 3297</t>
+  </si>
+  <si>
+    <t>['autos', 'motorcycles', 'ms-windows', 'mideast', 'x', 'med', 'os', 'crypt', 'pc', 'politics']</t>
+  </si>
+  <si>
+    <t>add class word into vocab, total number: 10</t>
+  </si>
+  <si>
+    <t>dict_keys(['talk.politics.guns', 'rec.sport.hockey', 'comp.sys.mac.hardware', 'sci.crypt', 'rec.sport.baseball', 'alt.atheism', 'rec.motorcycles', 'sci.space', 'misc.forsale', 'comp.graphics', 'talk.religion.misc', 'sci.electronics', 'comp.windows.x', 'talk.politics.mideast', 'soc.religion.christian', 'sci.med', 'rec.autos', 'comp.sys.ibm.pc.hardware', 'talk.politics.misc', 'comp.os.ms-windows.misc'])</t>
+  </si>
+  <si>
+    <t>add class word into vocab, total number: 4</t>
+  </si>
+  <si>
+    <t>['apple', 'google', 'microsoft', 'twitter']</t>
+  </si>
+  <si>
+    <t>dict_keys(['apple', 'twitter', 'google', 'microsoft'])</t>
+  </si>
+  <si>
+    <t>[795, 484, 717, 777]</t>
+  </si>
+  <si>
+    <t>0 795</t>
+  </si>
+  <si>
+    <t>795 1279</t>
+  </si>
+  <si>
+    <t>1279 1996</t>
+  </si>
+  <si>
+    <t>1996 2773</t>
   </si>
 </sst>
 </file>
@@ -839,7 +1076,7 @@
   <dimension ref="A1:U18"/>
   <sheetViews>
     <sheetView zoomScale="99" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1115,10 +1352,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53B92011-27FD-AF40-98F3-F9BF85490E33}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1197,42 +1434,108 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:8">
       <c r="B17" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="H17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="B18" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="H18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="H19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>5</v>
       </c>
       <c r="B20" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="H20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="B21" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="H21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="B22" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="H22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="B23" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="H23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="B24" t="s">
         <v>37</v>
+      </c>
+      <c r="H24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="H25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="H28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="H29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="H30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="H31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="H32" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1240,4 +1543,290 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C52FC077-E788-7F41-8A26-02A975139212}">
+  <dimension ref="A1:O30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3:O15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="4" max="4" width="8.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="O2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="O4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" t="s">
+        <v>79</v>
+      </c>
+      <c r="O7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" t="s">
+        <v>80</v>
+      </c>
+      <c r="O8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" t="s">
+        <v>81</v>
+      </c>
+      <c r="O9">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" t="s">
+        <v>82</v>
+      </c>
+      <c r="O10">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" t="s">
+        <v>83</v>
+      </c>
+      <c r="O11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" t="s">
+        <v>84</v>
+      </c>
+      <c r="O12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" t="s">
+        <v>85</v>
+      </c>
+      <c r="O13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" t="s">
+        <v>86</v>
+      </c>
+      <c r="O14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" t="s">
+        <v>87</v>
+      </c>
+      <c r="O15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>73</v>
+      </c>
+      <c r="E28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/实验结果.xlsx
+++ b/实验结果.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wuyuanfujie/Code/PycharmCode/TWE-DMM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB4D906F-0E38-AA41-BCA5-86F896CF6C8D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261DBA70-EF2E-0743-B0C2-6CFC81EEA479}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="2100" windowWidth="18420" windowHeight="12320" activeTab="2" xr2:uid="{047AF6EF-4B3C-6542-BE9D-A177F1E09917}"/>
+    <workbookView xWindow="5980" yWindow="1460" windowWidth="18980" windowHeight="13360" activeTab="3" xr2:uid="{047AF6EF-4B3C-6542-BE9D-A177F1E09917}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="LEAM-data" sheetId="3" r:id="rId3"/>
+    <sheet name="Classification" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="139">
   <si>
     <t>N20small</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -400,6 +401,79 @@
   </si>
   <si>
     <t>1996 2773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K=10 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LDA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The accuracy for classification of non-label text is 0.427389705882</t>
+  </si>
+  <si>
+    <t>/anaconda3/envs/LEAM/lib/python3.5/site-packages/sklearn/metrics/classification.py:1437: UndefinedMetricWarning: Precision and F-score are ill-defined and being set to 0.0 in labels with no predicted samples.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  'precision', 'predicted', average, warn_for)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              precision    recall  f1-score   support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           0      0.488     0.279     0.355       283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1      0.918     0.407     0.564       275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           2      0.341     0.904     0.495       303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           3      0.000     0.000     0.000       227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    accuracy                          0.427      1088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   macro avg      0.437     0.398     0.354      1088</t>
+  </si>
+  <si>
+    <t>weighted avg      0.454     0.427     0.373      1088</t>
+  </si>
+  <si>
+    <t>nolabel-0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The accuracy for classification of non-label text is 0.362992125984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           0      1.000     0.002     0.003       661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1      0.965     0.341     0.504       642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           2      0.304     0.993     0.465       707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           3      0.000     0.000     0.000       530</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    accuracy                          0.363      2540</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   macro avg      0.567     0.334     0.243      2540</t>
+  </si>
+  <si>
+    <t>weighted avg      0.589     0.363     0.258      2540</t>
+  </si>
+  <si>
+    <t>nolabel-0.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1549,8 +1623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C52FC077-E788-7F41-8A26-02A975139212}">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3:O15"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1829,4 +1903,194 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E443B36-7D3F-1B4E-9BE5-7B440151F644}">
+  <dimension ref="A1:U29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="A1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="B2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="B3" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="B4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="B5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="B7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="B8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="B9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="B10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="B12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="B13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="B14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18">
+      <c r="B17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18">
+      <c r="B18" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+    </row>
+    <row r="19" spans="2:18">
+      <c r="B19" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18">
+      <c r="B20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18">
+      <c r="B22" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18">
+      <c r="B23" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18">
+      <c r="B24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18">
+      <c r="B25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18">
+      <c r="B27" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18">
+      <c r="B28" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18">
+      <c r="B29" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>